--- a/op/dataDraw/res/事件demo.xlsx
+++ b/op/dataDraw/res/事件demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="14220" windowHeight="7280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>uid</t>
   </si>
@@ -60,22 +60,16 @@
     <t>次数</t>
   </si>
   <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>e6</t>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>运营</t>
   </si>
 </sst>
 </file>
@@ -84,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,17 +107,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,85 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,16 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,181 +251,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,25 +458,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,32 +513,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,85 +541,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,55 +628,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1286,13 +1280,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="11.9017857142857" customWidth="1"/>
     <col min="2" max="2" width="15.3214285714286" customWidth="1"/>
@@ -1312,7 +1306,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>10000</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1320,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <v>4695</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1328,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1">
-        <v>2584</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1336,23 +1330,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>452</v>
+        <v>5021</v>
       </c>
     </row>
   </sheetData>
